--- a/data/lla.xlsx
+++ b/data/lla.xlsx
@@ -3324,10 +3324,25 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="07626311-5b23-4afe-aa20-cc40db419bd4">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="d74b2904-cc6e-4260-b9ea-005e83d891d2" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84F0AB6D-CB71-449B-B3D5-473FB5598FC5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A70FF85F-5E9D-42F1-9E52-47EEBB25EE8D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{10F7944C-8C34-48EF-A500-E170254560C1}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDA0360-ECB4-424E-B8FD-702BCBFEAFC4}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFB60709-E477-4429-88BA-403D8C4186FB}"/>
 </file>